--- a/PflichtenheftOrg/Ext. files/Risikoanalyse/Risikoanalyse.xlsx
+++ b/PflichtenheftOrg/Ext. files/Risikoanalyse/Risikoanalyse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklausschwegler/OneDrive/FHNW/04_Unterricht/FS19/pro2E/Team1/EMI-Filter/PflichtenheftOrg/Ext. files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2a20\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="498" documentId="8_{7B06A07F-7188-0946-B048-C7944435CBA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A55114F5-3FB2-8B43-AC41-8F699BDE06EC}"/>
+  <xr:revisionPtr revIDLastSave="528" documentId="8_{7B06A07F-7188-0946-B048-C7944435CBA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E5C3E996-BE97-5A4B-BB59-0212D4BFC199}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7635" yWindow="720" windowWidth="28800" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Risiko" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -184,19 +185,11 @@
 WK Militär</t>
   </si>
   <si>
-    <t>Stellvertretender Projektleiter ist gewählt
-Stlv. Projektleiter ist mit den Aufgaben vertraut</t>
-  </si>
-  <si>
     <t xml:space="preserve">Weniger personelle Ressourcen vorhanden
 Umplanung notwendig
 </t>
   </si>
   <si>
-    <t>Weniger personelle Ressourcen
-Umplanung unumgänglich</t>
-  </si>
-  <si>
     <t>Kommunikationsstandard werden festgelegt
 faire Arbeitsaufteilung</t>
   </si>
@@ -207,15 +200,6 @@
     <t>Soziale Spannungen im Team</t>
   </si>
   <si>
-    <t>Ungerechte Arbeitsaufteilung
-Demotivierte Teammitglieder</t>
-  </si>
-  <si>
-    <t>Arbeitseffizients leidet
-Kreativität leidet
-Motivation leidet</t>
-  </si>
-  <si>
     <t>Technischer Defekt
 Server Probleme von Cloudspeicher</t>
   </si>
@@ -225,9 +209,6 @@
   </si>
   <si>
     <t>Auftrag kann nicht zufriedenstellend erledigt werden</t>
-  </si>
-  <si>
-    <t>Im Voraus alles klar definieren</t>
   </si>
   <si>
     <t>Legende</t>
@@ -262,194 +243,214 @@
 Unfall</t>
   </si>
   <si>
-    <t xml:space="preserve">Weniger personelle Ressourcen vorhanden
+    <t>Projektleiter fällt lanfristig aus</t>
+  </si>
+  <si>
+    <t>Krankheit
+Terminkollision</t>
+  </si>
+  <si>
+    <t>Rückfall im Zeitplan</t>
+  </si>
+  <si>
+    <t>verantw.</t>
+  </si>
+  <si>
+    <t>Wahrscheinlich</t>
+  </si>
+  <si>
+    <t>Unwahrscheinlich</t>
+  </si>
+  <si>
+    <t>&lt; 10%</t>
+  </si>
+  <si>
+    <t>Gewichtung</t>
+  </si>
+  <si>
+    <t>Möglich</t>
+  </si>
+  <si>
+    <t>Gering</t>
+  </si>
+  <si>
+    <t>Mässig</t>
+  </si>
+  <si>
+    <t>Hoch</t>
+  </si>
+  <si>
+    <t>Strukturplan unvollständig</t>
+  </si>
+  <si>
+    <t>Zeitplan verschiebt sich</t>
+  </si>
+  <si>
+    <t>Massnahme</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Stv. kann Projekt weiterführen</t>
+  </si>
+  <si>
+    <t>Stv. kann Zeitplan durchsetzten</t>
+  </si>
+  <si>
+    <t>Krankheit
+Private Ereignisse</t>
+  </si>
+  <si>
+    <t>Zeitplan wird eingehalten</t>
+  </si>
+  <si>
+    <t>Unerwartete APs
+kommen hinzu</t>
+  </si>
+  <si>
+    <t>Vergessengehen von APs wird minimiert</t>
+  </si>
+  <si>
+    <t>Zeiten der APs sind zu knapp kalkuliert</t>
+  </si>
+  <si>
+    <t>Verspätungen werden minimiert</t>
+  </si>
+  <si>
+    <t>Lastenheft falsch,
+mangelhaft</t>
+  </si>
+  <si>
+    <t>keine Unklarheiten werden offengelassen</t>
+  </si>
+  <si>
+    <t>APs zu anspruchsvoll</t>
+  </si>
+  <si>
+    <t>Aufgabe kann nicht zufriedenstellend erledigt werden</t>
+  </si>
+  <si>
+    <t>APs auf Teammitglieder abstimmen</t>
+  </si>
+  <si>
+    <t>Gering (1)</t>
+  </si>
+  <si>
+    <t>Mittel (2)</t>
+  </si>
+  <si>
+    <t>Hoch (3)</t>
+  </si>
+  <si>
+    <t>Schaden</t>
+  </si>
+  <si>
+    <t>Budgetüberschreitung/ 
+Verzug</t>
+  </si>
+  <si>
+    <t>10%-25%</t>
+  </si>
+  <si>
+    <t>&gt;25%</t>
+  </si>
+  <si>
+    <t>Eintrittswahrscheindlichkeit</t>
+  </si>
+  <si>
+    <t>&lt; 30%</t>
+  </si>
+  <si>
+    <t>30%-70%</t>
+  </si>
+  <si>
+    <t>&gt;70%</t>
+  </si>
+  <si>
+    <t>halb-halb</t>
+  </si>
+  <si>
+    <t>fast-sicher</t>
+  </si>
+  <si>
+    <t>Schadenausmass</t>
+  </si>
+  <si>
+    <t>Pufferzeiten einplanen
+Stv. Instruieren
+bekannte Abwesenheiten frühzeitig planen</t>
+  </si>
+  <si>
+    <t>Stellvertretender Projektleiter ist gewählt
+Stv. Projektleiter ist mit den Aufgaben vertraut</t>
+  </si>
+  <si>
+    <t>Pufferzeiten einplanen
+bekannte Abwesenheiten frühzeitig planen</t>
+  </si>
+  <si>
+    <t>saubere Dokumentation der individuellen Arbeiten.</t>
+  </si>
+  <si>
+    <t>erarbeitetes Wissen geht nicht verloren</t>
+  </si>
+  <si>
+    <t>Ungerechte Arbeitsaufteilung
+demotivierte Teammitglieder</t>
+  </si>
+  <si>
+    <t>Arbeitseffizient leidet
+Kreativität leidet
+Motivation leidet</t>
+  </si>
+  <si>
+    <t>Differenzen werden reduziert</t>
+  </si>
+  <si>
+    <t>schlechte Planung,
+zu wenig Einsatz</t>
+  </si>
+  <si>
+    <t>Kompetenzen werden falsch eingeschätzt</t>
+  </si>
+  <si>
+    <t>Jeder ist im stande sein AP durchzuführen</t>
+  </si>
+  <si>
+    <t>im Voraus alles klar definieren</t>
+  </si>
+  <si>
+    <t>alle Teammitglieder schauen den
+Projektplan an und ergänzen diesen</t>
+  </si>
+  <si>
+    <t>Daten verlust nur zurück zum Zeitpunkt
+des letzten Backup</t>
+  </si>
+  <si>
+    <t>regelmässige Backup erstellen,
+auf verschiedenen Datenträgern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weniger personelle Ressourcen vorhanden
 Führungsperson fehlt
 Projekt gefährdet
 </t>
   </si>
   <si>
-    <t>Projektleiter fällt lanfristig aus</t>
-  </si>
-  <si>
-    <t>Krankheit
-Terminkollision</t>
-  </si>
-  <si>
-    <t>Rückfall im Zeitplan</t>
-  </si>
-  <si>
-    <t>Pufferzeiten einplanen
-Stv. Instruieren
-Bekannteabwesenheiten frühzeitig planen</t>
-  </si>
-  <si>
-    <t>verantw.</t>
-  </si>
-  <si>
-    <t>Wahrscheinlich</t>
-  </si>
-  <si>
-    <t>Unwahrscheinlich</t>
-  </si>
-  <si>
-    <t>&lt; 10%</t>
-  </si>
-  <si>
-    <t>Gewichtung</t>
-  </si>
-  <si>
-    <t>Möglich</t>
-  </si>
-  <si>
-    <t>Gering</t>
-  </si>
-  <si>
-    <t>Mässig</t>
-  </si>
-  <si>
-    <t>Hoch</t>
-  </si>
-  <si>
-    <t>Strukturplan unvollständig</t>
-  </si>
-  <si>
-    <t>Zeitplan verschiebt sich</t>
-  </si>
-  <si>
-    <t>Massnahme</t>
-  </si>
-  <si>
-    <t>Beschreibung</t>
-  </si>
-  <si>
-    <t>Stv. kann Projekt weiterführen</t>
-  </si>
-  <si>
-    <t>Stv. kann Zeitplan durchsetzten</t>
-  </si>
-  <si>
-    <t>Pufferzeiten einplanen
-Bekannte abwesenheiten frühzeitig planen</t>
-  </si>
-  <si>
-    <t>Krankheit
-Private Ereignisse</t>
-  </si>
-  <si>
-    <t>Zeitplan wird eingehalten</t>
-  </si>
-  <si>
-    <t>Saubere Dokumentation der Individuellen Arbeiten.</t>
-  </si>
-  <si>
-    <t>Erarbeitetes Wissen geht nicht verloren</t>
-  </si>
-  <si>
-    <t>Unerwartete APs
-kommen hinzu</t>
-  </si>
-  <si>
-    <t>Vergessengehen von APs wird minimiert</t>
-  </si>
-  <si>
-    <t>Alle Teammitglieder schauen den
-Projektplan an und ergänzen diesen</t>
-  </si>
-  <si>
-    <t>Zeiten der APs sind zu knapp kalkuliert</t>
-  </si>
-  <si>
-    <t>Schlechte Planung,
-zu wenig Einsatz</t>
-  </si>
-  <si>
-    <t>Verspätungen werden minimiert</t>
-  </si>
-  <si>
-    <t>Regelmässiges Backup erstellen,
-auf verschiedenen Datenträgern</t>
-  </si>
-  <si>
-    <t>Daten verlust nur zurück zumZeitpunkt
-des letzten Backup</t>
-  </si>
-  <si>
-    <t>Lastenheft falsch,
-mangelhaft</t>
-  </si>
-  <si>
-    <t>keine Unklarheiten werden offengelassen</t>
-  </si>
-  <si>
-    <t>Diferenzen werden reduziert</t>
-  </si>
-  <si>
-    <t>APs zu anspruchsvoll</t>
-  </si>
-  <si>
-    <t>Kompetenzen werden falssch eingeschätzt</t>
-  </si>
-  <si>
-    <t>Aufgabe kann nicht zufriedenstellend erledigt werden</t>
-  </si>
-  <si>
-    <t>APs auf Teammitglieder abstimmen</t>
-  </si>
-  <si>
-    <t>Jeder ist im  stande sein AP durchzuführen</t>
-  </si>
-  <si>
-    <t>Gering (1)</t>
-  </si>
-  <si>
-    <t>Mittel (2)</t>
-  </si>
-  <si>
-    <t>Hoch (3)</t>
-  </si>
-  <si>
-    <t>Schaden</t>
-  </si>
-  <si>
-    <t>Budgetüberschreitung/ 
-Verzug</t>
-  </si>
-  <si>
-    <t>10%-25%</t>
-  </si>
-  <si>
-    <t>&gt;25%</t>
-  </si>
-  <si>
-    <t>Eintrittswahrscheindlichkeit</t>
-  </si>
-  <si>
-    <t>&lt; 30%</t>
-  </si>
-  <si>
-    <t>30%-70%</t>
-  </si>
-  <si>
-    <t>&gt;70%</t>
-  </si>
-  <si>
-    <t>Kaum</t>
-  </si>
-  <si>
-    <t>halb-halb</t>
-  </si>
-  <si>
-    <t>fast-sicher</t>
-  </si>
-  <si>
-    <t>Schadenausmass</t>
+    <t>weniger personelle Ressourcen
+Umplanung notwendig</t>
+  </si>
+  <si>
+    <t>kaum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,6 +534,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1596,33 +1602,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1704,118 +1710,169 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1830,68 +1887,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1911,14 +1920,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1926,11 +1935,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4891,52 +4897,52 @@
   </sheetPr>
   <dimension ref="B1:O107"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="62" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="20" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="20" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="5" max="5" width="33.5" customWidth="1"/>
-    <col min="6" max="8" width="6.5" customWidth="1"/>
-    <col min="9" max="10" width="34.1640625" customWidth="1"/>
-    <col min="11" max="13" width="6.5" customWidth="1"/>
-    <col min="14" max="14" width="7.83203125" customWidth="1"/>
-    <col min="15" max="15" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="6" max="8" width="6.42578125" customWidth="1"/>
+    <col min="9" max="10" width="34.140625" customWidth="1"/>
+    <col min="11" max="13" width="6.42578125" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" customWidth="1"/>
     <col min="17" max="17" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16" thickBot="1"/>
-    <row r="2" spans="2:15" ht="32" customHeight="1" thickBot="1">
-      <c r="B2" s="74"/>
-      <c r="C2" s="78" t="s">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="73"/>
+      <c r="C2" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="80" t="s">
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="81"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="79"/>
       <c r="O2" s="42"/>
     </row>
-    <row r="3" spans="2:15" ht="32" customHeight="1" thickBot="1">
+    <row r="3" spans="2:15" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D3" s="56" t="s">
         <v>24</v>
@@ -4954,7 +4960,7 @@
         <v>38</v>
       </c>
       <c r="I3" s="71" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J3" s="56" t="s">
         <v>16</v>
@@ -4969,11 +4975,11 @@
         <v>39</v>
       </c>
       <c r="N3" s="57" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="O3" s="42"/>
     </row>
-    <row r="4" spans="2:15" ht="68" customHeight="1" thickBot="1">
+    <row r="4" spans="2:15" ht="68.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="64" t="s">
         <v>0</v>
       </c>
@@ -4981,10 +4987,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F4" s="8">
         <v>2</v>
@@ -4992,15 +4998,15 @@
       <c r="G4" s="8">
         <v>2</v>
       </c>
-      <c r="H4" s="184">
+      <c r="H4" s="75">
         <f>F4*G4</f>
         <v>4</v>
       </c>
       <c r="I4" s="72" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K4" s="8">
         <v>1</v>
@@ -5013,22 +5019,22 @@
         <v>1</v>
       </c>
       <c r="N4" s="50" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="O4" s="60"/>
     </row>
-    <row r="5" spans="2:15" ht="68" customHeight="1" thickBot="1">
+    <row r="5" spans="2:15" ht="68.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="F5" s="8">
         <v>2</v>
@@ -5041,10 +5047,10 @@
         <v>4</v>
       </c>
       <c r="I5" s="72" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K5" s="8">
         <v>1</v>
@@ -5057,11 +5063,11 @@
         <v>2</v>
       </c>
       <c r="N5" s="50" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="O5" s="60"/>
     </row>
-    <row r="6" spans="2:15" ht="59" customHeight="1" thickBot="1">
+    <row r="6" spans="2:15" ht="59.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="64" t="s">
         <v>2</v>
       </c>
@@ -5069,10 +5075,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="8">
         <v>1</v>
@@ -5085,10 +5091,10 @@
         <v>3</v>
       </c>
       <c r="I6" s="72" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K6" s="8">
         <v>1</v>
@@ -5105,7 +5111,7 @@
       </c>
       <c r="O6" s="49"/>
     </row>
-    <row r="7" spans="2:15" ht="72" customHeight="1" thickBot="1">
+    <row r="7" spans="2:15" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="64" t="s">
         <v>3</v>
       </c>
@@ -5116,7 +5122,7 @@
         <v>45</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="F7" s="8">
         <v>2</v>
@@ -5129,10 +5135,10 @@
         <v>4</v>
       </c>
       <c r="I7" s="72" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="K7" s="8">
         <v>1</v>
@@ -5149,18 +5155,18 @@
       </c>
       <c r="O7" s="47"/>
     </row>
-    <row r="8" spans="2:15" ht="58" customHeight="1" thickBot="1">
+    <row r="8" spans="2:15" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="64" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="F8" s="8">
         <v>3</v>
@@ -5173,10 +5179,10 @@
         <v>6</v>
       </c>
       <c r="I8" s="72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K8" s="8">
         <v>2</v>
@@ -5193,18 +5199,18 @@
       </c>
       <c r="O8" s="47"/>
     </row>
-    <row r="9" spans="2:15" ht="70" customHeight="1" thickBot="1">
+    <row r="9" spans="2:15" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F9" s="8">
         <v>2</v>
@@ -5217,10 +5223,10 @@
         <v>4</v>
       </c>
       <c r="I9" s="72" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="K9" s="8">
         <v>2</v>
@@ -5233,22 +5239,22 @@
         <v>2</v>
       </c>
       <c r="N9" s="67" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O9" s="43"/>
     </row>
-    <row r="10" spans="2:15" ht="58" customHeight="1" thickBot="1">
+    <row r="10" spans="2:15" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="64" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" s="8">
         <v>1</v>
@@ -5264,7 +5270,7 @@
         <v>22</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K10" s="8">
         <v>1</v>
@@ -5277,22 +5283,22 @@
         <v>1</v>
       </c>
       <c r="N10" s="67" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="O10" s="43"/>
     </row>
-    <row r="11" spans="2:15" ht="55" customHeight="1" thickBot="1">
+    <row r="11" spans="2:15" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="64" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F11" s="8">
         <v>3</v>
@@ -5305,10 +5311,10 @@
         <v>6</v>
       </c>
       <c r="I11" s="72" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K11" s="8">
         <v>2</v>
@@ -5321,11 +5327,11 @@
         <v>2</v>
       </c>
       <c r="N11" s="67" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O11" s="43"/>
     </row>
-    <row r="12" spans="2:15" ht="60" customHeight="1" thickBot="1">
+    <row r="12" spans="2:15" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="64" t="s">
         <v>8</v>
       </c>
@@ -5333,10 +5339,10 @@
         <v>42</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F12" s="8">
         <v>3</v>
@@ -5349,10 +5355,10 @@
         <v>6</v>
       </c>
       <c r="I12" s="72" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="K12" s="8">
         <v>1</v>
@@ -5369,7 +5375,7 @@
       </c>
       <c r="O12" s="46"/>
     </row>
-    <row r="13" spans="2:15" ht="62" customHeight="1" thickBot="1">
+    <row r="13" spans="2:15" ht="62.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="64" t="s">
         <v>13</v>
       </c>
@@ -5377,10 +5383,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F13" s="52">
         <v>3</v>
@@ -5392,11 +5398,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I13" s="73" t="s">
-        <v>99</v>
+      <c r="I13" s="184" t="s">
+        <v>120</v>
       </c>
       <c r="J13" s="51" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="K13" s="52">
         <v>1</v>
@@ -5409,184 +5415,184 @@
         <v>1</v>
       </c>
       <c r="N13" s="68" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O13" s="46"/>
     </row>
-    <row r="14" spans="2:15" ht="51" customHeight="1">
-      <c r="B14" s="77"/>
-      <c r="C14" s="76"/>
+    <row r="14" spans="2:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="80"/>
+      <c r="C14" s="81"/>
       <c r="D14" s="44"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
       <c r="I14" s="44"/>
       <c r="J14" s="59"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
       <c r="O14" s="82"/>
     </row>
-    <row r="15" spans="2:15" ht="39.75" customHeight="1">
-      <c r="B15" s="77"/>
-      <c r="C15" s="76"/>
+    <row r="15" spans="2:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="80"/>
+      <c r="C15" s="81"/>
       <c r="D15" s="44"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="76"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="81"/>
       <c r="J15" s="59"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
       <c r="O15" s="82"/>
     </row>
-    <row r="16" spans="2:15" ht="48" customHeight="1">
-      <c r="B16" s="77"/>
-      <c r="C16" s="76"/>
+    <row r="16" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
       <c r="D16" s="44"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="76"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="81"/>
       <c r="J16" s="59"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
       <c r="O16" s="82"/>
     </row>
-    <row r="17" spans="2:15" ht="50" customHeight="1">
-      <c r="B17" s="77"/>
-      <c r="C17" s="76"/>
+    <row r="17" spans="2:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="44"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="76"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="81"/>
       <c r="J17" s="59"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
       <c r="O17" s="82"/>
     </row>
-    <row r="18" spans="2:15" ht="44.5" customHeight="1">
-      <c r="B18" s="77"/>
-      <c r="C18" s="76"/>
+    <row r="18" spans="2:15" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="80"/>
+      <c r="C18" s="81"/>
       <c r="D18" s="44"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="76"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="81"/>
       <c r="J18" s="59"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
       <c r="O18" s="82"/>
     </row>
-    <row r="19" spans="2:15" ht="36.75" customHeight="1">
-      <c r="B19" s="77"/>
-      <c r="C19" s="76"/>
+    <row r="19" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="44"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
       <c r="I19" s="45"/>
       <c r="J19" s="45"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
       <c r="O19" s="82"/>
     </row>
-    <row r="20" spans="2:15" ht="59" customHeight="1">
-      <c r="B20" s="77"/>
-      <c r="C20" s="76"/>
+    <row r="20" spans="2:15" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="44"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
       <c r="I20" s="44"/>
       <c r="J20" s="59"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
       <c r="O20" s="82"/>
     </row>
-    <row r="21" spans="2:15" ht="51" customHeight="1">
-      <c r="B21" s="77"/>
-      <c r="C21" s="76"/>
+    <row r="21" spans="2:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="44"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
       <c r="I21" s="44"/>
       <c r="J21" s="59"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
       <c r="O21" s="82"/>
     </row>
-    <row r="22" spans="2:15" ht="32" customHeight="1">
-      <c r="B22" s="77"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
+    <row r="22" spans="2:15" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
       <c r="I22" s="45"/>
       <c r="J22" s="45"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-    </row>
-    <row r="23" spans="2:15" ht="41.75" customHeight="1">
-      <c r="B23" s="77"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+    </row>
+    <row r="23" spans="2:15" ht="41.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
       <c r="I23" s="45"/>
       <c r="J23" s="45"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
-    </row>
-    <row r="24" spans="2:15" ht="67.25" customHeight="1">
-      <c r="B24" s="77"/>
-      <c r="C24" s="76"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+    </row>
+    <row r="24" spans="2:15" ht="67.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="80"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="44"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
       <c r="I24" s="44"/>
       <c r="J24" s="59"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-    </row>
-    <row r="25" spans="2:15">
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="83"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -5601,7 +5607,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="84"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -5616,7 +5622,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="84"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -5631,7 +5637,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -5646,7 +5652,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -5661,7 +5667,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -5676,7 +5682,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -5691,7 +5697,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -5706,7 +5712,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -5721,7 +5727,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -5736,7 +5742,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5751,7 +5757,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="32"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -5766,7 +5772,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="32"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5781,7 +5787,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5796,7 +5802,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -5811,7 +5817,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5826,7 +5832,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5841,7 +5847,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5856,7 +5862,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5871,7 +5877,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5886,7 +5892,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5901,7 +5907,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -5916,7 +5922,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5931,7 +5937,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5946,7 +5952,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -5961,7 +5967,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:15" ht="20.75" customHeight="1">
+    <row r="50" spans="2:15" ht="20.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -5976,7 +5982,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:15" ht="20.5" customHeight="1">
+    <row r="51" spans="2:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -5991,7 +5997,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:15" ht="20.5" customHeight="1">
+    <row r="52" spans="2:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6006,7 +6012,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:15" ht="20.5" customHeight="1">
+    <row r="53" spans="2:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6021,7 +6027,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:15" ht="20.5" customHeight="1">
+    <row r="54" spans="2:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6036,7 +6042,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:15" ht="20.5" customHeight="1">
+    <row r="55" spans="2:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6051,7 +6057,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:15" ht="20.5" customHeight="1">
+    <row r="56" spans="2:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6066,7 +6072,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:15" ht="20.5" customHeight="1">
+    <row r="57" spans="2:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6081,7 +6087,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -6096,7 +6102,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -6111,7 +6117,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -6126,7 +6132,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -6141,7 +6147,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -6157,7 +6163,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -6173,7 +6179,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -6189,7 +6195,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="2:15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -6205,7 +6211,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="2:15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -6221,7 +6227,7 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="2:15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -6237,7 +6243,7 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="2:15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -6253,7 +6259,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -6269,7 +6275,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -6285,7 +6291,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -6301,7 +6307,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -6317,7 +6323,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="2:15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -6333,7 +6339,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="2:15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -6349,7 +6355,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="2:15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -6365,7 +6371,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="2:15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -6381,7 +6387,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="2:15">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -6397,7 +6403,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="2:15">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -6413,7 +6419,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="2:15">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -6429,7 +6435,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="2:15">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -6445,7 +6451,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -6461,7 +6467,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -6477,7 +6483,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="2:15">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -6493,7 +6499,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="2:15">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -6509,7 +6515,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -6525,7 +6531,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="2:15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B86" s="3"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -6541,7 +6547,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="2:15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -6557,7 +6563,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="2:15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B88" s="3"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -6573,7 +6579,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="2:15">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B89" s="3"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -6589,7 +6595,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="2:15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B90" s="3"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -6605,7 +6611,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="2:15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B91" s="3"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -6621,7 +6627,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B92" s="3"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -6637,7 +6643,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="2:15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -6653,7 +6659,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="2:15">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -6669,7 +6675,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="2:15">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B95" s="3"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -6685,7 +6691,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="2:15">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -6701,7 +6707,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="2:15">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B97" s="3"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -6717,7 +6723,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="2:15">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B98" s="3"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -6733,7 +6739,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="2:15">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B99" s="3"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -6749,7 +6755,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="2:15">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B100" s="3"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -6765,7 +6771,7 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="2:15">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B101" s="3"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -6781,7 +6787,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="2:15">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B102" s="3"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -6797,7 +6803,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="2:15">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B103" s="3"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -6813,7 +6819,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="2:15">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -6829,7 +6835,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="2:15">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -6845,7 +6851,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="2:15">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -6861,7 +6867,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="2:15">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B107" s="3"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -6879,6 +6885,8 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="O19:O21"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="E19:E21"/>
@@ -6893,25 +6901,7 @@
     <mergeCell ref="M19:M21"/>
     <mergeCell ref="N19:N21"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="M22:M24"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="B17:B18"/>
     <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C22:C24"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="O14:O16"/>
@@ -6924,10 +6914,26 @@
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="N22:N24"/>
     <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="F22:F24"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="N14:N16"/>
     <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="M22:M24"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:H13">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
@@ -6949,7 +6955,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.78740157480314998" bottom="0.78740157480314998" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="8" scale="82" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6960,17 +6966,17 @@
   </sheetPr>
   <dimension ref="B1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16" thickBot="1"/>
-    <row r="2" spans="2:3" ht="16.25" customHeight="1" thickTop="1">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>14</v>
       </c>
@@ -6978,7 +6984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="16.25" customHeight="1">
+    <row r="3" spans="2:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
@@ -6987,7 +6993,7 @@
         <v>Projektleiter fällt kurzfristig aus</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="16.25" customHeight="1">
+    <row r="4" spans="2:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
@@ -6996,7 +7002,7 @@
         <v>Projektleiter fällt lanfristig aus</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="16.25" customHeight="1">
+    <row r="5" spans="2:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
@@ -7005,7 +7011,7 @@
         <v>Teammitglied fällt kurzfristig aus</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="16.25" customHeight="1">
+    <row r="6" spans="2:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
@@ -7014,7 +7020,7 @@
         <v>Teammitglied fällt langfristig aus</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="16.25" customHeight="1">
+    <row r="7" spans="2:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
@@ -7023,7 +7029,7 @@
         <v>Soziale Spannungen im Team</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="16.25" customHeight="1">
+    <row r="8" spans="2:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
@@ -7032,7 +7038,7 @@
         <v>Strukturplan unvollständig</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="16.25" customHeight="1">
+    <row r="9" spans="2:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
@@ -7041,7 +7047,7 @@
         <v>Zeiten der APs sind zu knapp kalkuliert</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="16.25" customHeight="1">
+    <row r="10" spans="2:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
         <v>7</v>
       </c>
@@ -7050,7 +7056,7 @@
         <v>APs zu anspruchsvoll</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="16.25" customHeight="1">
+    <row r="11" spans="2:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
         <v>8</v>
       </c>
@@ -7059,16 +7065,16 @@
         <v>Auftrag ist unklar definiert</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="16.25" customHeight="1" thickBot="1">
+    <row r="12" spans="2:3" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="75" t="str">
+      <c r="C12" s="74" t="str">
         <f>Risiko!C13</f>
         <v>Datenverlust</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="16" thickTop="1"/>
+    <row r="13" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7086,26 +7092,26 @@
       <selection activeCell="O3" sqref="O3:T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="2.83203125" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" customWidth="1"/>
-    <col min="13" max="13" width="43.5" customWidth="1"/>
-    <col min="18" max="18" width="40.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" customWidth="1"/>
+    <col min="13" max="13" width="43.42578125" customWidth="1"/>
+    <col min="18" max="18" width="40.7109375" customWidth="1"/>
     <col min="20" max="20" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="16" thickBot="1"/>
-    <row r="3" spans="2:20" ht="21" thickBot="1">
+    <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="85" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C3" s="86"/>
       <c r="D3" s="86"/>
@@ -7119,7 +7125,7 @@
       <c r="L3" s="104"/>
       <c r="M3" s="105"/>
       <c r="O3" s="93" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P3" s="94"/>
       <c r="Q3" s="94"/>
@@ -7129,7 +7135,7 @@
       </c>
       <c r="T3" s="97"/>
     </row>
-    <row r="4" spans="2:20" ht="18">
+    <row r="4" spans="2:20" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>26</v>
       </c>
@@ -7167,7 +7173,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="18">
+    <row r="5" spans="2:20" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
         <v>28</v>
       </c>
@@ -7199,13 +7205,13 @@
       <c r="Q5" s="58"/>
       <c r="R5" s="35"/>
       <c r="S5" s="39" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="T5" s="35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" ht="19" thickBot="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="23" t="s">
         <v>30</v>
       </c>
@@ -7237,13 +7243,13 @@
       <c r="Q6" s="98"/>
       <c r="R6" s="99"/>
       <c r="S6" s="39" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="T6" s="35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" ht="18">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
         <v>32</v>
       </c>
@@ -7267,7 +7273,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="18">
+    <row r="8" spans="2:20" ht="18" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
         <v>34</v>
       </c>
@@ -7285,13 +7291,13 @@
       <c r="Q8" s="41"/>
       <c r="R8" s="35"/>
       <c r="S8" s="39" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="T8" s="35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" ht="19" thickBot="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
         <v>36</v>
       </c>
@@ -7309,10 +7315,10 @@
       <c r="Q9" s="101"/>
       <c r="R9" s="102"/>
       <c r="S9" s="40" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="T9" s="37" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -7341,29 +7347,29 @@
       <selection activeCell="N4" sqref="N4:T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="2.83203125" customWidth="1"/>
-    <col min="4" max="4" width="1.83203125" customWidth="1"/>
-    <col min="5" max="10" width="7.33203125" customWidth="1"/>
-    <col min="11" max="11" width="2.5" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" customWidth="1"/>
+    <col min="5" max="10" width="7.28515625" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" customWidth="1"/>
     <col min="12" max="12" width="3" customWidth="1"/>
-    <col min="14" max="19" width="7.33203125" customWidth="1"/>
-    <col min="20" max="20" width="2.5" customWidth="1"/>
-    <col min="22" max="27" width="7.33203125" customWidth="1"/>
-    <col min="28" max="28" width="2.5" customWidth="1"/>
+    <col min="14" max="19" width="7.28515625" customWidth="1"/>
+    <col min="20" max="20" width="2.42578125" customWidth="1"/>
+    <col min="22" max="27" width="7.28515625" customWidth="1"/>
+    <col min="28" max="28" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="22" customHeight="1"/>
-    <row r="2" spans="2:28" ht="13.5" customHeight="1">
+    <row r="1" spans="2:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="63"/>
       <c r="D2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:28" ht="14.5" customHeight="1" thickBot="1">
+    <row r="3" spans="2:28" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="62"/>
@@ -7373,385 +7379,385 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="2:28" ht="15" customHeight="1" thickBot="1">
-      <c r="B4" s="181" t="s">
+    <row r="4" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="182" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="182" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="183"/>
+      <c r="E4" s="149">
+        <v>3</v>
+      </c>
+      <c r="F4" s="138"/>
+      <c r="G4" s="119">
+        <v>6</v>
+      </c>
+      <c r="H4" s="120"/>
+      <c r="I4" s="113">
+        <v>9</v>
+      </c>
+      <c r="J4" s="114"/>
+      <c r="N4" s="164" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="165"/>
+      <c r="P4" s="179" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q4" s="180"/>
+      <c r="R4" s="180"/>
+      <c r="S4" s="180"/>
+      <c r="T4" s="181"/>
+      <c r="V4" s="164" t="s">
+        <v>70</v>
+      </c>
+      <c r="W4" s="165"/>
+      <c r="X4" s="179" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y4" s="180"/>
+      <c r="Z4" s="180"/>
+      <c r="AA4" s="180"/>
+      <c r="AB4" s="181"/>
+    </row>
+    <row r="5" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="116"/>
+      <c r="N5" s="160" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" s="161"/>
+      <c r="P5" s="173" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q5" s="174"/>
+      <c r="R5" s="175"/>
+      <c r="S5" s="166" t="s">
+        <v>69</v>
+      </c>
+      <c r="T5" s="167"/>
+      <c r="V5" s="160" t="s">
+        <v>92</v>
+      </c>
+      <c r="W5" s="161"/>
+      <c r="X5" s="173" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="181" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="182"/>
-      <c r="E4" s="116">
+      <c r="Y5" s="174"/>
+      <c r="Z5" s="175"/>
+      <c r="AA5" s="166" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB5" s="167"/>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
+      <c r="N6" s="168" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" s="169"/>
+      <c r="P6" s="176"/>
+      <c r="Q6" s="177"/>
+      <c r="R6" s="178"/>
+      <c r="S6" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="T6" s="110"/>
+      <c r="V6" s="168" t="s">
+        <v>93</v>
+      </c>
+      <c r="W6" s="169"/>
+      <c r="X6" s="176" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y6" s="177"/>
+      <c r="Z6" s="178"/>
+      <c r="AA6" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB6" s="110"/>
+    </row>
+    <row r="7" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="116"/>
+      <c r="N7" s="162" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" s="163"/>
+      <c r="P7" s="170"/>
+      <c r="Q7" s="171"/>
+      <c r="R7" s="172"/>
+      <c r="S7" s="157" t="s">
+        <v>98</v>
+      </c>
+      <c r="T7" s="158"/>
+      <c r="V7" s="162" t="s">
+        <v>94</v>
+      </c>
+      <c r="W7" s="163"/>
+      <c r="X7" s="170" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y7" s="171"/>
+      <c r="Z7" s="172"/>
+      <c r="AA7" s="157" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB7" s="158"/>
+    </row>
+    <row r="8" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="182"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="118"/>
+    </row>
+    <row r="9" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="182"/>
+      <c r="C9" s="182" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="183"/>
+      <c r="E9" s="153">
+        <v>2</v>
+      </c>
+      <c r="F9" s="126"/>
+      <c r="G9" s="143">
+        <v>4</v>
+      </c>
+      <c r="H9" s="144"/>
+      <c r="I9" s="119">
+        <v>6</v>
+      </c>
+      <c r="J9" s="120"/>
+      <c r="N9" s="164" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" s="165"/>
+      <c r="P9" s="179" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9" s="180"/>
+      <c r="R9" s="180"/>
+      <c r="S9" s="180"/>
+      <c r="T9" s="181"/>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B10" s="182"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="122"/>
+      <c r="N10" s="160" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" s="161"/>
+      <c r="P10" s="173" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q10" s="174"/>
+      <c r="R10" s="175"/>
+      <c r="S10" s="166" t="s">
+        <v>100</v>
+      </c>
+      <c r="T10" s="167"/>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B11" s="182"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="122"/>
+      <c r="N11" s="168" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" s="169"/>
+      <c r="P11" s="176" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q11" s="177"/>
+      <c r="R11" s="178"/>
+      <c r="S11" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="T11" s="110"/>
+    </row>
+    <row r="12" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="182"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="122"/>
+      <c r="N12" s="162" t="s">
+        <v>94</v>
+      </c>
+      <c r="O12" s="163"/>
+      <c r="P12" s="170" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q12" s="171"/>
+      <c r="R12" s="172"/>
+      <c r="S12" s="157" t="s">
+        <v>102</v>
+      </c>
+      <c r="T12" s="158"/>
+    </row>
+    <row r="13" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="182"/>
+      <c r="C13" s="182"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="124"/>
+      <c r="M13" s="159"/>
+      <c r="N13" s="159"/>
+      <c r="O13" s="159"/>
+      <c r="P13" s="159"/>
+      <c r="Q13" s="159"/>
+      <c r="R13" s="159"/>
+    </row>
+    <row r="14" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="182"/>
+      <c r="C14" s="182" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="183"/>
+      <c r="E14" s="131">
+        <v>1</v>
+      </c>
+      <c r="F14" s="132"/>
+      <c r="G14" s="125">
+        <v>2</v>
+      </c>
+      <c r="H14" s="126"/>
+      <c r="I14" s="137">
         <v>3</v>
       </c>
-      <c r="F4" s="117"/>
-      <c r="G4" s="122">
-        <v>6</v>
-      </c>
-      <c r="H4" s="123"/>
-      <c r="I4" s="141">
-        <v>9</v>
-      </c>
-      <c r="J4" s="142"/>
-      <c r="N4" s="147" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" s="148"/>
-      <c r="P4" s="151" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q4" s="152"/>
-      <c r="R4" s="152"/>
-      <c r="S4" s="152"/>
-      <c r="T4" s="153"/>
-      <c r="V4" s="147" t="s">
-        <v>77</v>
-      </c>
-      <c r="W4" s="148"/>
-      <c r="X4" s="151" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y4" s="152"/>
-      <c r="Z4" s="152"/>
-      <c r="AA4" s="152"/>
-      <c r="AB4" s="153"/>
-    </row>
-    <row r="5" spans="2:28" ht="15" customHeight="1">
-      <c r="B5" s="181"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
-      <c r="N5" s="154" t="s">
-        <v>109</v>
-      </c>
-      <c r="O5" s="155"/>
-      <c r="P5" s="172" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="174"/>
-      <c r="S5" s="149" t="s">
-        <v>76</v>
-      </c>
-      <c r="T5" s="150"/>
-      <c r="V5" s="154" t="s">
-        <v>109</v>
-      </c>
-      <c r="W5" s="155"/>
-      <c r="X5" s="172" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y5" s="173"/>
-      <c r="Z5" s="174"/>
-      <c r="AA5" s="149" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB5" s="150"/>
-    </row>
-    <row r="6" spans="2:28">
-      <c r="B6" s="181"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="144"/>
-      <c r="N6" s="166" t="s">
-        <v>110</v>
-      </c>
-      <c r="O6" s="167"/>
-      <c r="P6" s="175"/>
-      <c r="Q6" s="176"/>
-      <c r="R6" s="177"/>
-      <c r="S6" s="138" t="s">
-        <v>114</v>
-      </c>
-      <c r="T6" s="139"/>
-      <c r="V6" s="166" t="s">
-        <v>110</v>
-      </c>
-      <c r="W6" s="167"/>
-      <c r="X6" s="175" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y6" s="176"/>
-      <c r="Z6" s="177"/>
-      <c r="AA6" s="138" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB6" s="139"/>
-    </row>
-    <row r="7" spans="2:28" ht="16" thickBot="1">
-      <c r="B7" s="181"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="144"/>
-      <c r="N7" s="170" t="s">
-        <v>111</v>
-      </c>
-      <c r="O7" s="171"/>
-      <c r="P7" s="178"/>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="180"/>
-      <c r="S7" s="168" t="s">
-        <v>115</v>
-      </c>
-      <c r="T7" s="169"/>
-      <c r="V7" s="170" t="s">
-        <v>111</v>
-      </c>
-      <c r="W7" s="171"/>
-      <c r="X7" s="178" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y7" s="179"/>
-      <c r="Z7" s="180"/>
-      <c r="AA7" s="168" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB7" s="169"/>
-    </row>
-    <row r="8" spans="2:28" ht="16" thickBot="1">
-      <c r="B8" s="181"/>
-      <c r="C8" s="181"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
-    </row>
-    <row r="9" spans="2:28" ht="16" thickBot="1">
-      <c r="B9" s="181"/>
-      <c r="C9" s="181" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="182"/>
-      <c r="E9" s="128">
-        <v>2</v>
-      </c>
-      <c r="F9" s="129"/>
-      <c r="G9" s="109">
-        <v>4</v>
-      </c>
-      <c r="H9" s="110"/>
-      <c r="I9" s="122">
-        <v>6</v>
-      </c>
-      <c r="J9" s="123"/>
-      <c r="N9" s="147" t="s">
-        <v>77</v>
-      </c>
-      <c r="O9" s="148"/>
-      <c r="P9" s="151" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="152"/>
-      <c r="S9" s="152"/>
-      <c r="T9" s="153"/>
-    </row>
-    <row r="10" spans="2:28">
-      <c r="B10" s="181"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="125"/>
-      <c r="N10" s="154" t="s">
-        <v>109</v>
-      </c>
-      <c r="O10" s="155"/>
-      <c r="P10" s="172" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q10" s="173"/>
-      <c r="R10" s="174"/>
-      <c r="S10" s="149" t="s">
-        <v>117</v>
-      </c>
-      <c r="T10" s="150"/>
-    </row>
-    <row r="11" spans="2:28">
-      <c r="B11" s="181"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="125"/>
-      <c r="N11" s="166" t="s">
-        <v>110</v>
-      </c>
-      <c r="O11" s="167"/>
-      <c r="P11" s="175" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q11" s="176"/>
-      <c r="R11" s="177"/>
-      <c r="S11" s="138" t="s">
-        <v>118</v>
-      </c>
-      <c r="T11" s="139"/>
-    </row>
-    <row r="12" spans="2:28" ht="16" thickBot="1">
-      <c r="B12" s="181"/>
-      <c r="C12" s="181"/>
-      <c r="D12" s="182"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="125"/>
-      <c r="N12" s="170" t="s">
-        <v>111</v>
-      </c>
-      <c r="O12" s="171"/>
-      <c r="P12" s="178" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q12" s="179"/>
-      <c r="R12" s="180"/>
-      <c r="S12" s="168" t="s">
-        <v>119</v>
-      </c>
-      <c r="T12" s="169"/>
-    </row>
-    <row r="13" spans="2:28" ht="16" thickBot="1">
-      <c r="B13" s="181"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="182"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="127"/>
-      <c r="M13" s="140"/>
-      <c r="N13" s="140"/>
-      <c r="O13" s="140"/>
-      <c r="P13" s="140"/>
-      <c r="Q13" s="140"/>
-      <c r="R13" s="140"/>
-    </row>
-    <row r="14" spans="2:28" ht="15" customHeight="1">
-      <c r="B14" s="181"/>
-      <c r="C14" s="181" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="182"/>
-      <c r="E14" s="160">
-        <v>1</v>
-      </c>
-      <c r="F14" s="161"/>
-      <c r="G14" s="156">
-        <v>2</v>
-      </c>
-      <c r="H14" s="129"/>
-      <c r="I14" s="134">
-        <v>3</v>
-      </c>
-      <c r="J14" s="117"/>
-    </row>
-    <row r="15" spans="2:28">
-      <c r="B15" s="181"/>
-      <c r="C15" s="181"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="119"/>
-    </row>
-    <row r="16" spans="2:28">
-      <c r="B16" s="181"/>
-      <c r="C16" s="181"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="119"/>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="181"/>
-      <c r="C17" s="181"/>
-      <c r="D17" s="182"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="119"/>
-    </row>
-    <row r="18" spans="2:12" ht="16" thickBot="1">
-      <c r="B18" s="181"/>
-      <c r="C18" s="181"/>
-      <c r="D18" s="182"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="137"/>
+      <c r="J14" s="138"/>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="140"/>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B16" s="182"/>
+      <c r="C16" s="182"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="140"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="182"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="140"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="182"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="142"/>
       <c r="K18" s="61"/>
     </row>
-    <row r="19" spans="2:12" ht="10.25" customHeight="1" thickTop="1">
+    <row r="19" spans="2:12" ht="10.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="183" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="183"/>
-      <c r="I19" s="183" t="s">
-        <v>74</v>
-      </c>
-      <c r="J19" s="183"/>
+      <c r="E19" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="111"/>
+      <c r="I19" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="111"/>
       <c r="L19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="14.25" customHeight="1">
+    <row r="20" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-    </row>
-    <row r="21" spans="2:12">
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="112"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="84" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F21" s="84"/>
       <c r="G21" s="84"/>
@@ -7760,7 +7766,7 @@
       <c r="J21" s="84"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -7772,42 +7778,42 @@
       <c r="J22" s="84"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="2:12" ht="22.25" customHeight="1">
+    <row r="23" spans="2:12" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:12" ht="14.25" customHeight="1">
+    <row r="25" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="2:12" ht="14.25" customHeight="1">
+    <row r="30" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -7819,7 +7825,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -7831,7 +7837,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -7854,6 +7860,12 @@
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="P12:R12"/>
     <mergeCell ref="S12:T12"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="C14:D18"/>
+    <mergeCell ref="C9:D13"/>
+    <mergeCell ref="C4:D8"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X4:AB4"/>
     <mergeCell ref="V5:W5"/>
@@ -7866,20 +7878,14 @@
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="S7:T7"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:T4"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="S5:T5"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="X6:Z6"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="S10:T10"/>
-    <mergeCell ref="X6:Z6"/>
     <mergeCell ref="AA6:AB6"/>
     <mergeCell ref="E19:F20"/>
     <mergeCell ref="G19:H20"/>
@@ -7893,9 +7899,9 @@
     <mergeCell ref="E4:F8"/>
     <mergeCell ref="G4:H8"/>
     <mergeCell ref="E9:F13"/>
-    <mergeCell ref="C14:D18"/>
-    <mergeCell ref="C9:D13"/>
-    <mergeCell ref="C4:D8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="150" orientation="portrait" r:id="rId1"/>
@@ -7911,23 +7917,23 @@
       <selection activeCell="B3" sqref="B3:L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="2.83203125" customWidth="1"/>
-    <col min="4" max="4" width="1.83203125" customWidth="1"/>
-    <col min="5" max="10" width="7.33203125" customWidth="1"/>
-    <col min="11" max="11" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" customWidth="1"/>
+    <col min="5" max="10" width="7.28515625" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" customWidth="1"/>
     <col min="12" max="12" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C3" s="63"/>
       <c r="D3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="16" thickBot="1">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="62"/>
@@ -7937,233 +7943,233 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="181" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="181" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="182"/>
-      <c r="E5" s="116">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="182" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="182" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="183"/>
+      <c r="E5" s="149">
         <v>3</v>
       </c>
-      <c r="F5" s="117"/>
-      <c r="G5" s="122">
+      <c r="F5" s="138"/>
+      <c r="G5" s="119">
         <v>6</v>
       </c>
-      <c r="H5" s="123"/>
-      <c r="I5" s="141">
+      <c r="H5" s="120"/>
+      <c r="I5" s="113">
         <v>9</v>
       </c>
-      <c r="J5" s="142"/>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="181"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="144"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="181"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="144"/>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="181"/>
-      <c r="C8" s="181"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="144"/>
-    </row>
-    <row r="9" spans="2:10" ht="16" thickBot="1">
-      <c r="B9" s="181"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="181"/>
-      <c r="C10" s="181" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="182"/>
-      <c r="E10" s="128">
+      <c r="J5" s="114"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="116"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="182"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="116"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="182"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="118"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="182"/>
+      <c r="C10" s="182" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="183"/>
+      <c r="E10" s="153">
         <v>2</v>
       </c>
-      <c r="F10" s="129"/>
-      <c r="G10" s="109">
+      <c r="F10" s="126"/>
+      <c r="G10" s="143">
         <v>4</v>
       </c>
-      <c r="H10" s="110"/>
-      <c r="I10" s="122">
+      <c r="H10" s="144"/>
+      <c r="I10" s="119">
         <v>6</v>
       </c>
-      <c r="J10" s="123"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="181"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="125"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="181"/>
-      <c r="C12" s="181"/>
-      <c r="D12" s="182"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="125"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="181"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="182"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="125"/>
-    </row>
-    <row r="14" spans="2:10" ht="16" thickBot="1">
-      <c r="B14" s="181"/>
-      <c r="C14" s="181"/>
-      <c r="D14" s="182"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="127"/>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="181"/>
-      <c r="C15" s="181" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="182"/>
-      <c r="E15" s="160">
+      <c r="J10" s="120"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="182"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="122"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="182"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="122"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="182"/>
+      <c r="C13" s="182"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="122"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="182"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="124"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="182"/>
+      <c r="C15" s="182" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="183"/>
+      <c r="E15" s="131">
         <v>1</v>
       </c>
-      <c r="F15" s="161"/>
-      <c r="G15" s="156">
+      <c r="F15" s="132"/>
+      <c r="G15" s="125">
         <v>2</v>
       </c>
-      <c r="H15" s="129"/>
-      <c r="I15" s="134">
+      <c r="H15" s="126"/>
+      <c r="I15" s="137">
         <v>3</v>
       </c>
-      <c r="J15" s="117"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="181"/>
-      <c r="C16" s="181"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="119"/>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="181"/>
-      <c r="C17" s="181"/>
-      <c r="D17" s="182"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="119"/>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="181"/>
-      <c r="C18" s="181"/>
-      <c r="D18" s="182"/>
-      <c r="E18" s="162"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="119"/>
-    </row>
-    <row r="19" spans="2:12" ht="16" thickBot="1">
-      <c r="B19" s="181"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="165"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="137"/>
+      <c r="J15" s="138"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="182"/>
+      <c r="C16" s="182"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="140"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="182"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="140"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="182"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="140"/>
+    </row>
+    <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="182"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="142"/>
       <c r="K19" s="61"/>
     </row>
-    <row r="20" spans="2:12" ht="16" thickTop="1">
+    <row r="20" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="183" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="183"/>
-      <c r="I20" s="183" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="183"/>
+      <c r="E20" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="111"/>
       <c r="L20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-    </row>
-    <row r="22" spans="2:12">
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="84" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F22" s="84"/>
       <c r="G22" s="84"/>
@@ -8172,7 +8178,7 @@
       <c r="J22" s="84"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
